--- a/SeasonData/AllNBA_Unpivoted.xlsx
+++ b/SeasonData/AllNBA_Unpivoted.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://h20bridge-my.sharepoint.com/personal/jack_getman_h2obridge_com/Documents/Desktop/DatacampNew/Bootcamp_Final_Project/SeasonData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA019232-195B-494E-B8D6-969B14D291BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{CA019232-195B-494E-B8D6-969B14D291BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{758A8EE4-9C0C-4EE6-B64F-C78622A875FA}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C52E484C-DB92-4C16-BB2E-FC940EF2B328}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C52E484C-DB92-4C16-BB2E-FC940EF2B328}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -213,9 +213,6 @@
     <t>Al Jefferson</t>
   </si>
   <si>
-    <t>Goran Dragi?</t>
-  </si>
-  <si>
     <t>2012-13</t>
   </si>
   <si>
@@ -261,9 +258,6 @@
     <t>Zach Randolph</t>
   </si>
   <si>
-    <t>Manu Gin—bili</t>
-  </si>
-  <si>
     <t>2009-10</t>
   </si>
   <si>
@@ -348,9 +342,6 @@
     <t>Jermaine O'Neal</t>
   </si>
   <si>
-    <t>Peja Stojakovi?</t>
-  </si>
-  <si>
     <t>Sam Cassell</t>
   </si>
   <si>
@@ -510,9 +501,6 @@
     <t>Joe Dumars</t>
   </si>
   <si>
-    <t>Dra?en Petrovi?</t>
-  </si>
-  <si>
     <t>1991-92</t>
   </si>
   <si>
@@ -691,6 +679,18 @@
   </si>
   <si>
     <t>Position</t>
+  </si>
+  <si>
+    <t>Goran Dragic</t>
+  </si>
+  <si>
+    <t>Manu Ginobili</t>
+  </si>
+  <si>
+    <t>Peja Stojakovic</t>
+  </si>
+  <si>
+    <t>Drazen Petrovic</t>
   </si>
 </sst>
 </file>
@@ -1045,7 +1045,7 @@
   <dimension ref="A1:E591"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1064,7 +1064,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -1152,7 +1152,7 @@
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1169,7 +1169,7 @@
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1339,7 +1339,7 @@
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -2835,7 +2835,7 @@
         <v>12</v>
       </c>
       <c r="E105" t="s">
-        <v>58</v>
+        <v>214</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -2857,7 +2857,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B107" t="s">
         <v>5</v>
@@ -2874,7 +2874,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B108" t="s">
         <v>5</v>
@@ -2891,7 +2891,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B109" t="s">
         <v>5</v>
@@ -2908,24 +2908,24 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>58</v>
+      </c>
+      <c r="B110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C110" t="s">
+        <v>6</v>
+      </c>
+      <c r="D110" t="s">
+        <v>12</v>
+      </c>
+      <c r="E110" t="s">
         <v>59</v>
-      </c>
-      <c r="B110" t="s">
-        <v>5</v>
-      </c>
-      <c r="C110" t="s">
-        <v>6</v>
-      </c>
-      <c r="D110" t="s">
-        <v>12</v>
-      </c>
-      <c r="E110" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B111" t="s">
         <v>5</v>
@@ -2942,7 +2942,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B112" t="s">
         <v>5</v>
@@ -2959,7 +2959,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B113" t="s">
         <v>5</v>
@@ -2971,12 +2971,12 @@
         <v>9</v>
       </c>
       <c r="E113" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B114" t="s">
         <v>5</v>
@@ -2993,7 +2993,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B115" t="s">
         <v>5</v>
@@ -3010,7 +3010,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B116" t="s">
         <v>5</v>
@@ -3027,7 +3027,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B117" t="s">
         <v>5</v>
@@ -3044,7 +3044,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B118" t="s">
         <v>5</v>
@@ -3061,7 +3061,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B119" t="s">
         <v>5</v>
@@ -3073,12 +3073,12 @@
         <v>9</v>
       </c>
       <c r="E119" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B120" t="s">
         <v>5</v>
@@ -3095,7 +3095,7 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B121" t="s">
         <v>5</v>
@@ -3107,12 +3107,12 @@
         <v>12</v>
       </c>
       <c r="E121" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B122" t="s">
         <v>5</v>
@@ -3129,7 +3129,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B123" t="s">
         <v>5</v>
@@ -3146,7 +3146,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B124" t="s">
         <v>5</v>
@@ -3163,7 +3163,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B125" t="s">
         <v>5</v>
@@ -3175,12 +3175,12 @@
         <v>12</v>
       </c>
       <c r="E125" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B126" t="s">
         <v>5</v>
@@ -3197,24 +3197,24 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
+        <v>63</v>
+      </c>
+      <c r="B127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C127" t="s">
+        <v>14</v>
+      </c>
+      <c r="D127" t="s">
+        <v>7</v>
+      </c>
+      <c r="E127" t="s">
         <v>64</v>
-      </c>
-      <c r="B127" t="s">
-        <v>5</v>
-      </c>
-      <c r="C127" t="s">
-        <v>14</v>
-      </c>
-      <c r="D127" t="s">
-        <v>7</v>
-      </c>
-      <c r="E127" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B128" t="s">
         <v>5</v>
@@ -3231,7 +3231,7 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B129" t="s">
         <v>5</v>
@@ -3248,7 +3248,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B130" t="s">
         <v>5</v>
@@ -3265,7 +3265,7 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B131" t="s">
         <v>5</v>
@@ -3282,7 +3282,7 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B132" t="s">
         <v>5</v>
@@ -3294,12 +3294,12 @@
         <v>7</v>
       </c>
       <c r="E132" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B133" t="s">
         <v>5</v>
@@ -3311,12 +3311,12 @@
         <v>9</v>
       </c>
       <c r="E133" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B134" t="s">
         <v>5</v>
@@ -3328,12 +3328,12 @@
         <v>9</v>
       </c>
       <c r="E134" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B135" t="s">
         <v>5</v>
@@ -3345,12 +3345,12 @@
         <v>12</v>
       </c>
       <c r="E135" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B136" t="s">
         <v>5</v>
@@ -3362,12 +3362,12 @@
         <v>12</v>
       </c>
       <c r="E136" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B137" t="s">
         <v>5</v>
@@ -3384,7 +3384,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B138" t="s">
         <v>5</v>
@@ -3401,7 +3401,7 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B139" t="s">
         <v>5</v>
@@ -3418,7 +3418,7 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B140" t="s">
         <v>5</v>
@@ -3430,29 +3430,29 @@
         <v>12</v>
       </c>
       <c r="E140" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
+        <v>68</v>
+      </c>
+      <c r="B141" t="s">
+        <v>5</v>
+      </c>
+      <c r="C141" t="s">
+        <v>6</v>
+      </c>
+      <c r="D141" t="s">
+        <v>12</v>
+      </c>
+      <c r="E141" t="s">
         <v>69</v>
-      </c>
-      <c r="B141" t="s">
-        <v>5</v>
-      </c>
-      <c r="C141" t="s">
-        <v>6</v>
-      </c>
-      <c r="D141" t="s">
-        <v>12</v>
-      </c>
-      <c r="E141" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B142" t="s">
         <v>5</v>
@@ -3464,12 +3464,12 @@
         <v>7</v>
       </c>
       <c r="E142" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B143" t="s">
         <v>5</v>
@@ -3486,7 +3486,7 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B144" t="s">
         <v>5</v>
@@ -3498,12 +3498,12 @@
         <v>9</v>
       </c>
       <c r="E144" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B145" t="s">
         <v>5</v>
@@ -3515,12 +3515,12 @@
         <v>12</v>
       </c>
       <c r="E145" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B146" t="s">
         <v>5</v>
@@ -3537,7 +3537,7 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B147" t="s">
         <v>5</v>
@@ -3549,12 +3549,12 @@
         <v>7</v>
       </c>
       <c r="E147" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B148" t="s">
         <v>5</v>
@@ -3571,7 +3571,7 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B149" t="s">
         <v>5</v>
@@ -3583,12 +3583,12 @@
         <v>9</v>
       </c>
       <c r="E149" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B150" t="s">
         <v>5</v>
@@ -3600,12 +3600,12 @@
         <v>12</v>
       </c>
       <c r="E150" t="s">
-        <v>74</v>
+        <v>215</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B151" t="s">
         <v>5</v>
@@ -3622,7 +3622,7 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B152" t="s">
         <v>5</v>
@@ -3639,7 +3639,7 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B153" t="s">
         <v>5</v>
@@ -3656,7 +3656,7 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B154" t="s">
         <v>5</v>
@@ -3673,7 +3673,7 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B155" t="s">
         <v>5</v>
@@ -3685,12 +3685,12 @@
         <v>12</v>
       </c>
       <c r="E155" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B156" t="s">
         <v>5</v>
@@ -3702,12 +3702,12 @@
         <v>12</v>
       </c>
       <c r="E156" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B157" t="s">
         <v>5</v>
@@ -3719,12 +3719,12 @@
         <v>7</v>
       </c>
       <c r="E157" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B158" t="s">
         <v>5</v>
@@ -3736,12 +3736,12 @@
         <v>9</v>
       </c>
       <c r="E158" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B159" t="s">
         <v>5</v>
@@ -3753,12 +3753,12 @@
         <v>9</v>
       </c>
       <c r="E159" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B160" t="s">
         <v>5</v>
@@ -3770,29 +3770,29 @@
         <v>12</v>
       </c>
       <c r="E160" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
+        <v>73</v>
+      </c>
+      <c r="B161" t="s">
+        <v>5</v>
+      </c>
+      <c r="C161" t="s">
+        <v>14</v>
+      </c>
+      <c r="D161" t="s">
+        <v>12</v>
+      </c>
+      <c r="E161" t="s">
         <v>75</v>
-      </c>
-      <c r="B161" t="s">
-        <v>5</v>
-      </c>
-      <c r="C161" t="s">
-        <v>14</v>
-      </c>
-      <c r="D161" t="s">
-        <v>12</v>
-      </c>
-      <c r="E161" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B162" t="s">
         <v>5</v>
@@ -3804,12 +3804,12 @@
         <v>7</v>
       </c>
       <c r="E162" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B163" t="s">
         <v>5</v>
@@ -3826,7 +3826,7 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B164" t="s">
         <v>5</v>
@@ -3843,7 +3843,7 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B165" t="s">
         <v>5</v>
@@ -3855,12 +3855,12 @@
         <v>12</v>
       </c>
       <c r="E165" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B166" t="s">
         <v>5</v>
@@ -3872,12 +3872,12 @@
         <v>12</v>
       </c>
       <c r="E166" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B167" t="s">
         <v>5</v>
@@ -3894,7 +3894,7 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B168" t="s">
         <v>5</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B169" t="s">
         <v>5</v>
@@ -3923,12 +3923,12 @@
         <v>9</v>
       </c>
       <c r="E169" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B170" t="s">
         <v>5</v>
@@ -3940,12 +3940,12 @@
         <v>12</v>
       </c>
       <c r="E170" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B171" t="s">
         <v>5</v>
@@ -3957,12 +3957,12 @@
         <v>12</v>
       </c>
       <c r="E171" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B172" t="s">
         <v>5</v>
@@ -3974,12 +3974,12 @@
         <v>7</v>
       </c>
       <c r="E172" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B173" t="s">
         <v>5</v>
@@ -3996,24 +3996,24 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
+        <v>79</v>
+      </c>
+      <c r="B174" t="s">
+        <v>5</v>
+      </c>
+      <c r="C174" t="s">
+        <v>14</v>
+      </c>
+      <c r="D174" t="s">
+        <v>9</v>
+      </c>
+      <c r="E174" t="s">
         <v>81</v>
-      </c>
-      <c r="B174" t="s">
-        <v>5</v>
-      </c>
-      <c r="C174" t="s">
-        <v>14</v>
-      </c>
-      <c r="D174" t="s">
-        <v>9</v>
-      </c>
-      <c r="E174" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B175" t="s">
         <v>5</v>
@@ -4030,7 +4030,7 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B176" t="s">
         <v>5</v>
@@ -4042,12 +4042,12 @@
         <v>12</v>
       </c>
       <c r="E176" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B177" t="s">
         <v>5</v>
@@ -4059,12 +4059,12 @@
         <v>7</v>
       </c>
       <c r="E177" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B178" t="s">
         <v>5</v>
@@ -4076,12 +4076,12 @@
         <v>9</v>
       </c>
       <c r="E178" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B179" t="s">
         <v>5</v>
@@ -4098,7 +4098,7 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B180" t="s">
         <v>5</v>
@@ -4110,12 +4110,12 @@
         <v>12</v>
       </c>
       <c r="E180" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B181" t="s">
         <v>5</v>
@@ -4132,7 +4132,7 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B182" t="s">
         <v>5</v>
@@ -4149,7 +4149,7 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B183" t="s">
         <v>5</v>
@@ -4161,12 +4161,12 @@
         <v>9</v>
       </c>
       <c r="E183" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B184" t="s">
         <v>5</v>
@@ -4183,7 +4183,7 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B185" t="s">
         <v>5</v>
@@ -4195,12 +4195,12 @@
         <v>12</v>
       </c>
       <c r="E185" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B186" t="s">
         <v>5</v>
@@ -4217,7 +4217,7 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B187" t="s">
         <v>5</v>
@@ -4229,12 +4229,12 @@
         <v>7</v>
       </c>
       <c r="E187" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B188" t="s">
         <v>5</v>
@@ -4251,7 +4251,7 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B189" t="s">
         <v>5</v>
@@ -4263,12 +4263,12 @@
         <v>9</v>
       </c>
       <c r="E189" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B190" t="s">
         <v>5</v>
@@ -4280,12 +4280,12 @@
         <v>12</v>
       </c>
       <c r="E190" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B191" t="s">
         <v>5</v>
@@ -4297,12 +4297,12 @@
         <v>12</v>
       </c>
       <c r="E191" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B192" t="s">
         <v>5</v>
@@ -4314,29 +4314,29 @@
         <v>7</v>
       </c>
       <c r="E192" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
+        <v>84</v>
+      </c>
+      <c r="B193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C193" t="s">
+        <v>19</v>
+      </c>
+      <c r="D193" t="s">
+        <v>9</v>
+      </c>
+      <c r="E193" t="s">
         <v>86</v>
-      </c>
-      <c r="B193" t="s">
-        <v>5</v>
-      </c>
-      <c r="C193" t="s">
-        <v>19</v>
-      </c>
-      <c r="D193" t="s">
-        <v>9</v>
-      </c>
-      <c r="E193" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B194" t="s">
         <v>5</v>
@@ -4348,12 +4348,12 @@
         <v>9</v>
       </c>
       <c r="E194" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B195" t="s">
         <v>5</v>
@@ -4365,12 +4365,12 @@
         <v>12</v>
       </c>
       <c r="E195" t="s">
-        <v>74</v>
+        <v>215</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B196" t="s">
         <v>5</v>
@@ -4382,12 +4382,12 @@
         <v>12</v>
       </c>
       <c r="E196" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B197" t="s">
         <v>5</v>
@@ -4399,12 +4399,12 @@
         <v>7</v>
       </c>
       <c r="E197" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B198" t="s">
         <v>5</v>
@@ -4421,7 +4421,7 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B199" t="s">
         <v>5</v>
@@ -4433,12 +4433,12 @@
         <v>9</v>
       </c>
       <c r="E199" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B200" t="s">
         <v>5</v>
@@ -4450,12 +4450,12 @@
         <v>12</v>
       </c>
       <c r="E200" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B201" t="s">
         <v>5</v>
@@ -4467,12 +4467,12 @@
         <v>12</v>
       </c>
       <c r="E201" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B202" t="s">
         <v>5</v>
@@ -4484,12 +4484,12 @@
         <v>7</v>
       </c>
       <c r="E202" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B203" t="s">
         <v>5</v>
@@ -4501,12 +4501,12 @@
         <v>9</v>
       </c>
       <c r="E203" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B204" t="s">
         <v>5</v>
@@ -4523,24 +4523,24 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
+        <v>88</v>
+      </c>
+      <c r="B205" t="s">
+        <v>5</v>
+      </c>
+      <c r="C205" t="s">
+        <v>14</v>
+      </c>
+      <c r="D205" t="s">
+        <v>12</v>
+      </c>
+      <c r="E205" t="s">
         <v>90</v>
-      </c>
-      <c r="B205" t="s">
-        <v>5</v>
-      </c>
-      <c r="C205" t="s">
-        <v>14</v>
-      </c>
-      <c r="D205" t="s">
-        <v>12</v>
-      </c>
-      <c r="E205" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B206" t="s">
         <v>5</v>
@@ -4552,12 +4552,12 @@
         <v>12</v>
       </c>
       <c r="E206" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B207" t="s">
         <v>5</v>
@@ -4574,7 +4574,7 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B208" t="s">
         <v>5</v>
@@ -4586,12 +4586,12 @@
         <v>9</v>
       </c>
       <c r="E208" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B209" t="s">
         <v>5</v>
@@ -4603,12 +4603,12 @@
         <v>9</v>
       </c>
       <c r="E209" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B210" t="s">
         <v>5</v>
@@ -4620,12 +4620,12 @@
         <v>12</v>
       </c>
       <c r="E210" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B211" t="s">
         <v>5</v>
@@ -4637,12 +4637,12 @@
         <v>12</v>
       </c>
       <c r="E211" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B212" t="s">
         <v>5</v>
@@ -4654,12 +4654,12 @@
         <v>7</v>
       </c>
       <c r="E212" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B213" t="s">
         <v>5</v>
@@ -4676,7 +4676,7 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B214" t="s">
         <v>5</v>
@@ -4688,12 +4688,12 @@
         <v>9</v>
       </c>
       <c r="E214" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B215" t="s">
         <v>5</v>
@@ -4705,12 +4705,12 @@
         <v>12</v>
       </c>
       <c r="E215" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B216" t="s">
         <v>5</v>
@@ -4722,12 +4722,12 @@
         <v>12</v>
       </c>
       <c r="E216" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B217" t="s">
         <v>5</v>
@@ -4739,29 +4739,29 @@
         <v>7</v>
       </c>
       <c r="E217" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
+        <v>91</v>
+      </c>
+      <c r="B218" t="s">
+        <v>5</v>
+      </c>
+      <c r="C218" t="s">
+        <v>14</v>
+      </c>
+      <c r="D218" t="s">
+        <v>9</v>
+      </c>
+      <c r="E218" t="s">
         <v>93</v>
-      </c>
-      <c r="B218" t="s">
-        <v>5</v>
-      </c>
-      <c r="C218" t="s">
-        <v>14</v>
-      </c>
-      <c r="D218" t="s">
-        <v>9</v>
-      </c>
-      <c r="E218" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B219" t="s">
         <v>5</v>
@@ -4778,7 +4778,7 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B220" t="s">
         <v>5</v>
@@ -4790,12 +4790,12 @@
         <v>12</v>
       </c>
       <c r="E220" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B221" t="s">
         <v>5</v>
@@ -4807,12 +4807,12 @@
         <v>12</v>
       </c>
       <c r="E221" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B222" t="s">
         <v>5</v>
@@ -4824,12 +4824,12 @@
         <v>7</v>
       </c>
       <c r="E222" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B223" t="s">
         <v>5</v>
@@ -4841,12 +4841,12 @@
         <v>9</v>
       </c>
       <c r="E223" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B224" t="s">
         <v>5</v>
@@ -4858,12 +4858,12 @@
         <v>9</v>
       </c>
       <c r="E224" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B225" t="s">
         <v>5</v>
@@ -4875,12 +4875,12 @@
         <v>12</v>
       </c>
       <c r="E225" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B226" t="s">
         <v>5</v>
@@ -4892,12 +4892,12 @@
         <v>12</v>
       </c>
       <c r="E226" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B227" t="s">
         <v>5</v>
@@ -4909,12 +4909,12 @@
         <v>7</v>
       </c>
       <c r="E227" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B228" t="s">
         <v>5</v>
@@ -4931,7 +4931,7 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B229" t="s">
         <v>5</v>
@@ -4943,12 +4943,12 @@
         <v>9</v>
       </c>
       <c r="E229" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B230" t="s">
         <v>5</v>
@@ -4960,12 +4960,12 @@
         <v>12</v>
       </c>
       <c r="E230" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B231" t="s">
         <v>5</v>
@@ -4977,12 +4977,12 @@
         <v>12</v>
       </c>
       <c r="E231" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B232" t="s">
         <v>5</v>
@@ -4994,12 +4994,12 @@
         <v>7</v>
       </c>
       <c r="E232" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B233" t="s">
         <v>5</v>
@@ -5011,12 +5011,12 @@
         <v>9</v>
       </c>
       <c r="E233" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B234" t="s">
         <v>5</v>
@@ -5033,7 +5033,7 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B235" t="s">
         <v>5</v>
@@ -5045,12 +5045,12 @@
         <v>12</v>
       </c>
       <c r="E235" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B236" t="s">
         <v>5</v>
@@ -5062,12 +5062,12 @@
         <v>12</v>
       </c>
       <c r="E236" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B237" t="s">
         <v>5</v>
@@ -5079,12 +5079,12 @@
         <v>7</v>
       </c>
       <c r="E237" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B238" t="s">
         <v>5</v>
@@ -5096,12 +5096,12 @@
         <v>9</v>
       </c>
       <c r="E238" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B239" t="s">
         <v>5</v>
@@ -5113,12 +5113,12 @@
         <v>9</v>
       </c>
       <c r="E239" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B240" t="s">
         <v>5</v>
@@ -5130,12 +5130,12 @@
         <v>12</v>
       </c>
       <c r="E240" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B241" t="s">
         <v>5</v>
@@ -5147,12 +5147,12 @@
         <v>12</v>
       </c>
       <c r="E241" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B242" t="s">
         <v>5</v>
@@ -5164,12 +5164,12 @@
         <v>7</v>
       </c>
       <c r="E242" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B243" t="s">
         <v>5</v>
@@ -5186,7 +5186,7 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B244" t="s">
         <v>5</v>
@@ -5198,12 +5198,12 @@
         <v>9</v>
       </c>
       <c r="E244" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B245" t="s">
         <v>5</v>
@@ -5215,12 +5215,12 @@
         <v>12</v>
       </c>
       <c r="E245" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B246" t="s">
         <v>5</v>
@@ -5232,12 +5232,12 @@
         <v>12</v>
       </c>
       <c r="E246" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B247" t="s">
         <v>5</v>
@@ -5249,29 +5249,29 @@
         <v>7</v>
       </c>
       <c r="E247" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
+        <v>98</v>
+      </c>
+      <c r="B248" t="s">
+        <v>5</v>
+      </c>
+      <c r="C248" t="s">
+        <v>14</v>
+      </c>
+      <c r="D248" t="s">
+        <v>9</v>
+      </c>
+      <c r="E248" t="s">
         <v>100</v>
-      </c>
-      <c r="B248" t="s">
-        <v>5</v>
-      </c>
-      <c r="C248" t="s">
-        <v>14</v>
-      </c>
-      <c r="D248" t="s">
-        <v>9</v>
-      </c>
-      <c r="E248" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B249" t="s">
         <v>5</v>
@@ -5283,12 +5283,12 @@
         <v>9</v>
       </c>
       <c r="E249" t="s">
-        <v>103</v>
+        <v>216</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B250" t="s">
         <v>5</v>
@@ -5300,12 +5300,12 @@
         <v>12</v>
       </c>
       <c r="E250" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B251" t="s">
         <v>5</v>
@@ -5317,12 +5317,12 @@
         <v>12</v>
       </c>
       <c r="E251" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B252" t="s">
         <v>5</v>
@@ -5334,12 +5334,12 @@
         <v>7</v>
       </c>
       <c r="E252" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B253" t="s">
         <v>5</v>
@@ -5351,12 +5351,12 @@
         <v>9</v>
       </c>
       <c r="E253" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B254" t="s">
         <v>5</v>
@@ -5368,12 +5368,12 @@
         <v>9</v>
       </c>
       <c r="E254" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B255" t="s">
         <v>5</v>
@@ -5385,12 +5385,12 @@
         <v>12</v>
       </c>
       <c r="E255" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B256" t="s">
         <v>5</v>
@@ -5402,12 +5402,12 @@
         <v>12</v>
       </c>
       <c r="E256" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B257" t="s">
         <v>5</v>
@@ -5419,12 +5419,12 @@
         <v>7</v>
       </c>
       <c r="E257" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B258" t="s">
         <v>5</v>
@@ -5441,7 +5441,7 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B259" t="s">
         <v>5</v>
@@ -5453,12 +5453,12 @@
         <v>9</v>
       </c>
       <c r="E259" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B260" t="s">
         <v>5</v>
@@ -5470,12 +5470,12 @@
         <v>12</v>
       </c>
       <c r="E260" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B261" t="s">
         <v>5</v>
@@ -5487,12 +5487,12 @@
         <v>12</v>
       </c>
       <c r="E261" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B262" t="s">
         <v>5</v>
@@ -5504,12 +5504,12 @@
         <v>7</v>
       </c>
       <c r="E262" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B263" t="s">
         <v>5</v>
@@ -5521,12 +5521,12 @@
         <v>9</v>
       </c>
       <c r="E263" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B264" t="s">
         <v>5</v>
@@ -5538,12 +5538,12 @@
         <v>9</v>
       </c>
       <c r="E264" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B265" t="s">
         <v>5</v>
@@ -5555,12 +5555,12 @@
         <v>12</v>
       </c>
       <c r="E265" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B266" t="s">
         <v>5</v>
@@ -5572,12 +5572,12 @@
         <v>12</v>
       </c>
       <c r="E266" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B267" t="s">
         <v>5</v>
@@ -5589,12 +5589,12 @@
         <v>7</v>
       </c>
       <c r="E267" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B268" t="s">
         <v>5</v>
@@ -5606,12 +5606,12 @@
         <v>9</v>
       </c>
       <c r="E268" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B269" t="s">
         <v>5</v>
@@ -5623,29 +5623,29 @@
         <v>9</v>
       </c>
       <c r="E269" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
+        <v>105</v>
+      </c>
+      <c r="B270" t="s">
+        <v>5</v>
+      </c>
+      <c r="C270" t="s">
+        <v>19</v>
+      </c>
+      <c r="D270" t="s">
+        <v>12</v>
+      </c>
+      <c r="E270" t="s">
         <v>108</v>
-      </c>
-      <c r="B270" t="s">
-        <v>5</v>
-      </c>
-      <c r="C270" t="s">
-        <v>19</v>
-      </c>
-      <c r="D270" t="s">
-        <v>12</v>
-      </c>
-      <c r="E270" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B271" t="s">
         <v>5</v>
@@ -5657,12 +5657,12 @@
         <v>12</v>
       </c>
       <c r="E271" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B272" t="s">
         <v>5</v>
@@ -5674,12 +5674,12 @@
         <v>7</v>
       </c>
       <c r="E272" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B273" t="s">
         <v>5</v>
@@ -5696,7 +5696,7 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B274" t="s">
         <v>5</v>
@@ -5708,12 +5708,12 @@
         <v>9</v>
       </c>
       <c r="E274" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B275" t="s">
         <v>5</v>
@@ -5725,12 +5725,12 @@
         <v>12</v>
       </c>
       <c r="E275" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B276" t="s">
         <v>5</v>
@@ -5742,12 +5742,12 @@
         <v>12</v>
       </c>
       <c r="E276" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B277" t="s">
         <v>5</v>
@@ -5759,12 +5759,12 @@
         <v>7</v>
       </c>
       <c r="E277" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B278" t="s">
         <v>5</v>
@@ -5776,12 +5776,12 @@
         <v>9</v>
       </c>
       <c r="E278" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B279" t="s">
         <v>5</v>
@@ -5793,12 +5793,12 @@
         <v>9</v>
       </c>
       <c r="E279" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B280" t="s">
         <v>5</v>
@@ -5810,12 +5810,12 @@
         <v>12</v>
       </c>
       <c r="E280" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B281" t="s">
         <v>5</v>
@@ -5827,12 +5827,12 @@
         <v>12</v>
       </c>
       <c r="E281" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B282" t="s">
         <v>5</v>
@@ -5844,12 +5844,12 @@
         <v>7</v>
       </c>
       <c r="E282" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B283" t="s">
         <v>5</v>
@@ -5861,12 +5861,12 @@
         <v>9</v>
       </c>
       <c r="E283" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B284" t="s">
         <v>5</v>
@@ -5878,12 +5878,12 @@
         <v>9</v>
       </c>
       <c r="E284" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B285" t="s">
         <v>5</v>
@@ -5895,12 +5895,12 @@
         <v>12</v>
       </c>
       <c r="E285" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B286" t="s">
         <v>5</v>
@@ -5912,12 +5912,12 @@
         <v>12</v>
       </c>
       <c r="E286" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B287" t="s">
         <v>5</v>
@@ -5929,12 +5929,12 @@
         <v>7</v>
       </c>
       <c r="E287" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B288" t="s">
         <v>5</v>
@@ -5951,7 +5951,7 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B289" t="s">
         <v>5</v>
@@ -5963,12 +5963,12 @@
         <v>9</v>
       </c>
       <c r="E289" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B290" t="s">
         <v>5</v>
@@ -5980,12 +5980,12 @@
         <v>12</v>
       </c>
       <c r="E290" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B291" t="s">
         <v>5</v>
@@ -5997,12 +5997,12 @@
         <v>12</v>
       </c>
       <c r="E291" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B292" t="s">
         <v>5</v>
@@ -6014,12 +6014,12 @@
         <v>7</v>
       </c>
       <c r="E292" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B293" t="s">
         <v>5</v>
@@ -6031,12 +6031,12 @@
         <v>9</v>
       </c>
       <c r="E293" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B294" t="s">
         <v>5</v>
@@ -6048,12 +6048,12 @@
         <v>9</v>
       </c>
       <c r="E294" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B295" t="s">
         <v>5</v>
@@ -6065,12 +6065,12 @@
         <v>12</v>
       </c>
       <c r="E295" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B296" t="s">
         <v>5</v>
@@ -6082,12 +6082,12 @@
         <v>12</v>
       </c>
       <c r="E296" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B297" t="s">
         <v>5</v>
@@ -6099,29 +6099,29 @@
         <v>7</v>
       </c>
       <c r="E297" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
+        <v>112</v>
+      </c>
+      <c r="B298" t="s">
+        <v>5</v>
+      </c>
+      <c r="C298" t="s">
+        <v>19</v>
+      </c>
+      <c r="D298" t="s">
+        <v>9</v>
+      </c>
+      <c r="E298" t="s">
         <v>115</v>
-      </c>
-      <c r="B298" t="s">
-        <v>5</v>
-      </c>
-      <c r="C298" t="s">
-        <v>19</v>
-      </c>
-      <c r="D298" t="s">
-        <v>9</v>
-      </c>
-      <c r="E298" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B299" t="s">
         <v>5</v>
@@ -6133,12 +6133,12 @@
         <v>9</v>
       </c>
       <c r="E299" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B300" t="s">
         <v>5</v>
@@ -6150,12 +6150,12 @@
         <v>12</v>
       </c>
       <c r="E300" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B301" t="s">
         <v>5</v>
@@ -6167,12 +6167,12 @@
         <v>12</v>
       </c>
       <c r="E301" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B302" t="s">
         <v>5</v>
@@ -6184,12 +6184,12 @@
         <v>7</v>
       </c>
       <c r="E302" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B303" t="s">
         <v>5</v>
@@ -6206,7 +6206,7 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B304" t="s">
         <v>5</v>
@@ -6218,12 +6218,12 @@
         <v>9</v>
       </c>
       <c r="E304" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B305" t="s">
         <v>5</v>
@@ -6235,12 +6235,12 @@
         <v>12</v>
       </c>
       <c r="E305" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B306" t="s">
         <v>5</v>
@@ -6252,12 +6252,12 @@
         <v>12</v>
       </c>
       <c r="E306" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B307" t="s">
         <v>5</v>
@@ -6269,12 +6269,12 @@
         <v>7</v>
       </c>
       <c r="E307" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B308" t="s">
         <v>5</v>
@@ -6286,12 +6286,12 @@
         <v>9</v>
       </c>
       <c r="E308" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B309" t="s">
         <v>5</v>
@@ -6303,12 +6303,12 @@
         <v>9</v>
       </c>
       <c r="E309" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B310" t="s">
         <v>5</v>
@@ -6320,12 +6320,12 @@
         <v>12</v>
       </c>
       <c r="E310" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B311" t="s">
         <v>5</v>
@@ -6337,12 +6337,12 @@
         <v>12</v>
       </c>
       <c r="E311" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B312" t="s">
         <v>5</v>
@@ -6354,12 +6354,12 @@
         <v>7</v>
       </c>
       <c r="E312" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B313" t="s">
         <v>5</v>
@@ -6371,12 +6371,12 @@
         <v>9</v>
       </c>
       <c r="E313" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B314" t="s">
         <v>5</v>
@@ -6388,29 +6388,29 @@
         <v>9</v>
       </c>
       <c r="E314" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
+        <v>116</v>
+      </c>
+      <c r="B315" t="s">
+        <v>5</v>
+      </c>
+      <c r="C315" t="s">
+        <v>19</v>
+      </c>
+      <c r="D315" t="s">
+        <v>12</v>
+      </c>
+      <c r="E315" t="s">
         <v>119</v>
-      </c>
-      <c r="B315" t="s">
-        <v>5</v>
-      </c>
-      <c r="C315" t="s">
-        <v>19</v>
-      </c>
-      <c r="D315" t="s">
-        <v>12</v>
-      </c>
-      <c r="E315" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B316" t="s">
         <v>5</v>
@@ -6422,12 +6422,12 @@
         <v>12</v>
       </c>
       <c r="E316" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B317" t="s">
         <v>5</v>
@@ -6439,12 +6439,12 @@
         <v>7</v>
       </c>
       <c r="E317" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B318" t="s">
         <v>5</v>
@@ -6461,7 +6461,7 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B319" t="s">
         <v>5</v>
@@ -6473,12 +6473,12 @@
         <v>9</v>
       </c>
       <c r="E319" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B320" t="s">
         <v>5</v>
@@ -6490,12 +6490,12 @@
         <v>12</v>
       </c>
       <c r="E320" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B321" t="s">
         <v>5</v>
@@ -6507,12 +6507,12 @@
         <v>12</v>
       </c>
       <c r="E321" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B322" t="s">
         <v>5</v>
@@ -6524,12 +6524,12 @@
         <v>7</v>
       </c>
       <c r="E322" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B323" t="s">
         <v>5</v>
@@ -6541,12 +6541,12 @@
         <v>9</v>
       </c>
       <c r="E323" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B324" t="s">
         <v>5</v>
@@ -6558,12 +6558,12 @@
         <v>9</v>
       </c>
       <c r="E324" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B325" t="s">
         <v>5</v>
@@ -6575,12 +6575,12 @@
         <v>12</v>
       </c>
       <c r="E325" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B326" t="s">
         <v>5</v>
@@ -6592,12 +6592,12 @@
         <v>12</v>
       </c>
       <c r="E326" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B327" t="s">
         <v>5</v>
@@ -6609,12 +6609,12 @@
         <v>7</v>
       </c>
       <c r="E327" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B328" t="s">
         <v>5</v>
@@ -6626,29 +6626,29 @@
         <v>9</v>
       </c>
       <c r="E328" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
+        <v>120</v>
+      </c>
+      <c r="B329" t="s">
+        <v>5</v>
+      </c>
+      <c r="C329" t="s">
+        <v>19</v>
+      </c>
+      <c r="D329" t="s">
+        <v>9</v>
+      </c>
+      <c r="E329" t="s">
         <v>123</v>
-      </c>
-      <c r="B329" t="s">
-        <v>5</v>
-      </c>
-      <c r="C329" t="s">
-        <v>19</v>
-      </c>
-      <c r="D329" t="s">
-        <v>9</v>
-      </c>
-      <c r="E329" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B330" t="s">
         <v>5</v>
@@ -6660,12 +6660,12 @@
         <v>12</v>
       </c>
       <c r="E330" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B331" t="s">
         <v>5</v>
@@ -6677,12 +6677,12 @@
         <v>12</v>
       </c>
       <c r="E331" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B332" t="s">
         <v>5</v>
@@ -6694,12 +6694,12 @@
         <v>7</v>
       </c>
       <c r="E332" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B333" t="s">
         <v>5</v>
@@ -6716,7 +6716,7 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B334" t="s">
         <v>5</v>
@@ -6728,12 +6728,12 @@
         <v>9</v>
       </c>
       <c r="E334" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B335" t="s">
         <v>5</v>
@@ -6745,12 +6745,12 @@
         <v>12</v>
       </c>
       <c r="E335" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B336" t="s">
         <v>5</v>
@@ -6762,12 +6762,12 @@
         <v>12</v>
       </c>
       <c r="E336" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B337" t="s">
         <v>5</v>
@@ -6779,12 +6779,12 @@
         <v>7</v>
       </c>
       <c r="E337" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B338" t="s">
         <v>5</v>
@@ -6796,12 +6796,12 @@
         <v>9</v>
       </c>
       <c r="E338" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B339" t="s">
         <v>5</v>
@@ -6813,12 +6813,12 @@
         <v>9</v>
       </c>
       <c r="E339" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B340" t="s">
         <v>5</v>
@@ -6830,29 +6830,29 @@
         <v>12</v>
       </c>
       <c r="E340" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
+        <v>125</v>
+      </c>
+      <c r="B341" t="s">
+        <v>5</v>
+      </c>
+      <c r="C341" t="s">
+        <v>14</v>
+      </c>
+      <c r="D341" t="s">
+        <v>12</v>
+      </c>
+      <c r="E341" t="s">
         <v>128</v>
-      </c>
-      <c r="B341" t="s">
-        <v>5</v>
-      </c>
-      <c r="C341" t="s">
-        <v>14</v>
-      </c>
-      <c r="D341" t="s">
-        <v>12</v>
-      </c>
-      <c r="E341" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B342" t="s">
         <v>5</v>
@@ -6864,12 +6864,12 @@
         <v>7</v>
       </c>
       <c r="E342" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B343" t="s">
         <v>5</v>
@@ -6881,12 +6881,12 @@
         <v>9</v>
       </c>
       <c r="E343" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B344" t="s">
         <v>5</v>
@@ -6898,12 +6898,12 @@
         <v>9</v>
       </c>
       <c r="E344" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B345" t="s">
         <v>5</v>
@@ -6915,12 +6915,12 @@
         <v>12</v>
       </c>
       <c r="E345" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B346" t="s">
         <v>5</v>
@@ -6932,12 +6932,12 @@
         <v>12</v>
       </c>
       <c r="E346" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B347" t="s">
         <v>5</v>
@@ -6949,12 +6949,12 @@
         <v>7</v>
       </c>
       <c r="E347" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B348" t="s">
         <v>5</v>
@@ -6966,12 +6966,12 @@
         <v>9</v>
       </c>
       <c r="E348" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B349" t="s">
         <v>5</v>
@@ -6983,12 +6983,12 @@
         <v>9</v>
       </c>
       <c r="E349" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B350" t="s">
         <v>5</v>
@@ -7000,12 +7000,12 @@
         <v>12</v>
       </c>
       <c r="E350" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B351" t="s">
         <v>5</v>
@@ -7017,12 +7017,12 @@
         <v>12</v>
       </c>
       <c r="E351" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B352" t="s">
         <v>5</v>
@@ -7034,12 +7034,12 @@
         <v>7</v>
       </c>
       <c r="E352" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B353" t="s">
         <v>5</v>
@@ -7051,12 +7051,12 @@
         <v>9</v>
       </c>
       <c r="E353" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B354" t="s">
         <v>5</v>
@@ -7068,12 +7068,12 @@
         <v>9</v>
       </c>
       <c r="E354" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B355" t="s">
         <v>5</v>
@@ -7085,12 +7085,12 @@
         <v>12</v>
       </c>
       <c r="E355" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B356" t="s">
         <v>5</v>
@@ -7102,12 +7102,12 @@
         <v>12</v>
       </c>
       <c r="E356" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B357" t="s">
         <v>5</v>
@@ -7119,12 +7119,12 @@
         <v>7</v>
       </c>
       <c r="E357" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B358" t="s">
         <v>5</v>
@@ -7136,12 +7136,12 @@
         <v>9</v>
       </c>
       <c r="E358" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B359" t="s">
         <v>5</v>
@@ -7153,29 +7153,29 @@
         <v>9</v>
       </c>
       <c r="E359" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
+        <v>133</v>
+      </c>
+      <c r="B360" t="s">
+        <v>5</v>
+      </c>
+      <c r="C360" t="s">
+        <v>19</v>
+      </c>
+      <c r="D360" t="s">
+        <v>12</v>
+      </c>
+      <c r="E360" t="s">
         <v>136</v>
-      </c>
-      <c r="B360" t="s">
-        <v>5</v>
-      </c>
-      <c r="C360" t="s">
-        <v>19</v>
-      </c>
-      <c r="D360" t="s">
-        <v>12</v>
-      </c>
-      <c r="E360" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B361" t="s">
         <v>5</v>
@@ -7187,12 +7187,12 @@
         <v>12</v>
       </c>
       <c r="E361" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B362" t="s">
         <v>5</v>
@@ -7204,12 +7204,12 @@
         <v>7</v>
       </c>
       <c r="E362" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B363" t="s">
         <v>5</v>
@@ -7221,12 +7221,12 @@
         <v>9</v>
       </c>
       <c r="E363" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B364" t="s">
         <v>5</v>
@@ -7238,12 +7238,12 @@
         <v>9</v>
       </c>
       <c r="E364" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B365" t="s">
         <v>5</v>
@@ -7255,12 +7255,12 @@
         <v>12</v>
       </c>
       <c r="E365" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B366" t="s">
         <v>5</v>
@@ -7272,12 +7272,12 @@
         <v>12</v>
       </c>
       <c r="E366" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B367" t="s">
         <v>5</v>
@@ -7289,12 +7289,12 @@
         <v>7</v>
       </c>
       <c r="E367" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B368" t="s">
         <v>5</v>
@@ -7306,12 +7306,12 @@
         <v>9</v>
       </c>
       <c r="E368" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B369" t="s">
         <v>5</v>
@@ -7323,12 +7323,12 @@
         <v>9</v>
       </c>
       <c r="E369" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B370" t="s">
         <v>5</v>
@@ -7340,12 +7340,12 @@
         <v>12</v>
       </c>
       <c r="E370" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B371" t="s">
         <v>5</v>
@@ -7357,12 +7357,12 @@
         <v>12</v>
       </c>
       <c r="E371" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B372" t="s">
         <v>5</v>
@@ -7374,12 +7374,12 @@
         <v>7</v>
       </c>
       <c r="E372" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B373" t="s">
         <v>5</v>
@@ -7391,29 +7391,29 @@
         <v>9</v>
       </c>
       <c r="E373" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
+        <v>137</v>
+      </c>
+      <c r="B374" t="s">
+        <v>5</v>
+      </c>
+      <c r="C374" t="s">
+        <v>19</v>
+      </c>
+      <c r="D374" t="s">
+        <v>9</v>
+      </c>
+      <c r="E374" t="s">
         <v>140</v>
-      </c>
-      <c r="B374" t="s">
-        <v>5</v>
-      </c>
-      <c r="C374" t="s">
-        <v>19</v>
-      </c>
-      <c r="D374" t="s">
-        <v>9</v>
-      </c>
-      <c r="E374" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B375" t="s">
         <v>5</v>
@@ -7425,12 +7425,12 @@
         <v>12</v>
       </c>
       <c r="E375" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B376" t="s">
         <v>5</v>
@@ -7442,12 +7442,12 @@
         <v>12</v>
       </c>
       <c r="E376" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B377" t="s">
         <v>5</v>
@@ -7459,12 +7459,12 @@
         <v>7</v>
       </c>
       <c r="E377" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B378" t="s">
         <v>5</v>
@@ -7476,12 +7476,12 @@
         <v>9</v>
       </c>
       <c r="E378" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B379" t="s">
         <v>5</v>
@@ -7493,12 +7493,12 @@
         <v>9</v>
       </c>
       <c r="E379" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B380" t="s">
         <v>5</v>
@@ -7510,12 +7510,12 @@
         <v>12</v>
       </c>
       <c r="E380" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B381" t="s">
         <v>5</v>
@@ -7527,12 +7527,12 @@
         <v>12</v>
       </c>
       <c r="E381" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B382" t="s">
         <v>5</v>
@@ -7544,12 +7544,12 @@
         <v>7</v>
       </c>
       <c r="E382" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B383" t="s">
         <v>5</v>
@@ -7561,12 +7561,12 @@
         <v>9</v>
       </c>
       <c r="E383" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B384" t="s">
         <v>5</v>
@@ -7578,12 +7578,12 @@
         <v>9</v>
       </c>
       <c r="E384" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B385" t="s">
         <v>5</v>
@@ -7595,12 +7595,12 @@
         <v>12</v>
       </c>
       <c r="E385" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B386" t="s">
         <v>5</v>
@@ -7612,12 +7612,12 @@
         <v>12</v>
       </c>
       <c r="E386" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B387" t="s">
         <v>5</v>
@@ -7629,12 +7629,12 @@
         <v>7</v>
       </c>
       <c r="E387" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B388" t="s">
         <v>5</v>
@@ -7646,12 +7646,12 @@
         <v>9</v>
       </c>
       <c r="E388" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B389" t="s">
         <v>5</v>
@@ -7663,29 +7663,29 @@
         <v>9</v>
       </c>
       <c r="E389" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
+        <v>141</v>
+      </c>
+      <c r="B390" t="s">
+        <v>5</v>
+      </c>
+      <c r="C390" t="s">
+        <v>19</v>
+      </c>
+      <c r="D390" t="s">
+        <v>12</v>
+      </c>
+      <c r="E390" t="s">
         <v>144</v>
-      </c>
-      <c r="B390" t="s">
-        <v>5</v>
-      </c>
-      <c r="C390" t="s">
-        <v>19</v>
-      </c>
-      <c r="D390" t="s">
-        <v>12</v>
-      </c>
-      <c r="E390" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B391" t="s">
         <v>5</v>
@@ -7697,12 +7697,12 @@
         <v>12</v>
       </c>
       <c r="E391" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B392" t="s">
         <v>5</v>
@@ -7714,12 +7714,12 @@
         <v>7</v>
       </c>
       <c r="E392" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B393" t="s">
         <v>5</v>
@@ -7731,12 +7731,12 @@
         <v>9</v>
       </c>
       <c r="E393" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B394" t="s">
         <v>5</v>
@@ -7748,12 +7748,12 @@
         <v>9</v>
       </c>
       <c r="E394" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B395" t="s">
         <v>5</v>
@@ -7765,12 +7765,12 @@
         <v>12</v>
       </c>
       <c r="E395" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B396" t="s">
         <v>5</v>
@@ -7782,12 +7782,12 @@
         <v>12</v>
       </c>
       <c r="E396" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B397" t="s">
         <v>5</v>
@@ -7799,12 +7799,12 @@
         <v>7</v>
       </c>
       <c r="E397" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B398" t="s">
         <v>5</v>
@@ -7816,12 +7816,12 @@
         <v>9</v>
       </c>
       <c r="E398" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B399" t="s">
         <v>5</v>
@@ -7833,12 +7833,12 @@
         <v>9</v>
       </c>
       <c r="E399" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B400" t="s">
         <v>5</v>
@@ -7850,12 +7850,12 @@
         <v>12</v>
       </c>
       <c r="E400" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B401" t="s">
         <v>5</v>
@@ -7867,12 +7867,12 @@
         <v>12</v>
       </c>
       <c r="E401" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B402" t="s">
         <v>5</v>
@@ -7884,29 +7884,29 @@
         <v>7</v>
       </c>
       <c r="E402" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
+        <v>145</v>
+      </c>
+      <c r="B403" t="s">
+        <v>5</v>
+      </c>
+      <c r="C403" t="s">
+        <v>19</v>
+      </c>
+      <c r="D403" t="s">
+        <v>9</v>
+      </c>
+      <c r="E403" t="s">
         <v>148</v>
-      </c>
-      <c r="B403" t="s">
-        <v>5</v>
-      </c>
-      <c r="C403" t="s">
-        <v>19</v>
-      </c>
-      <c r="D403" t="s">
-        <v>9</v>
-      </c>
-      <c r="E403" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B404" t="s">
         <v>5</v>
@@ -7918,12 +7918,12 @@
         <v>9</v>
       </c>
       <c r="E404" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B405" t="s">
         <v>5</v>
@@ -7935,12 +7935,12 @@
         <v>12</v>
       </c>
       <c r="E405" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B406" t="s">
         <v>5</v>
@@ -7952,12 +7952,12 @@
         <v>12</v>
       </c>
       <c r="E406" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B407" t="s">
         <v>5</v>
@@ -7969,12 +7969,12 @@
         <v>7</v>
       </c>
       <c r="E407" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B408" t="s">
         <v>5</v>
@@ -7986,12 +7986,12 @@
         <v>9</v>
       </c>
       <c r="E408" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B409" t="s">
         <v>5</v>
@@ -8003,12 +8003,12 @@
         <v>9</v>
       </c>
       <c r="E409" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B410" t="s">
         <v>5</v>
@@ -8020,12 +8020,12 @@
         <v>12</v>
       </c>
       <c r="E410" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B411" t="s">
         <v>5</v>
@@ -8037,12 +8037,12 @@
         <v>12</v>
       </c>
       <c r="E411" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B412" t="s">
         <v>5</v>
@@ -8054,12 +8054,12 @@
         <v>7</v>
       </c>
       <c r="E412" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B413" t="s">
         <v>5</v>
@@ -8071,12 +8071,12 @@
         <v>9</v>
       </c>
       <c r="E413" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B414" t="s">
         <v>5</v>
@@ -8088,12 +8088,12 @@
         <v>9</v>
       </c>
       <c r="E414" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B415" t="s">
         <v>5</v>
@@ -8105,12 +8105,12 @@
         <v>12</v>
       </c>
       <c r="E415" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B416" t="s">
         <v>5</v>
@@ -8122,12 +8122,12 @@
         <v>12</v>
       </c>
       <c r="E416" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B417" t="s">
         <v>5</v>
@@ -8139,12 +8139,12 @@
         <v>7</v>
       </c>
       <c r="E417" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B418" t="s">
         <v>5</v>
@@ -8156,12 +8156,12 @@
         <v>9</v>
       </c>
       <c r="E418" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B419" t="s">
         <v>5</v>
@@ -8173,12 +8173,12 @@
         <v>9</v>
       </c>
       <c r="E419" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B420" t="s">
         <v>5</v>
@@ -8190,12 +8190,12 @@
         <v>12</v>
       </c>
       <c r="E420" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B421" t="s">
         <v>5</v>
@@ -8207,12 +8207,12 @@
         <v>12</v>
       </c>
       <c r="E421" t="s">
-        <v>157</v>
+        <v>217</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B422" t="s">
         <v>5</v>
@@ -8224,12 +8224,12 @@
         <v>7</v>
       </c>
       <c r="E422" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B423" t="s">
         <v>5</v>
@@ -8241,12 +8241,12 @@
         <v>9</v>
       </c>
       <c r="E423" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B424" t="s">
         <v>5</v>
@@ -8258,12 +8258,12 @@
         <v>9</v>
       </c>
       <c r="E424" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B425" t="s">
         <v>5</v>
@@ -8275,12 +8275,12 @@
         <v>12</v>
       </c>
       <c r="E425" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B426" t="s">
         <v>5</v>
@@ -8292,12 +8292,12 @@
         <v>12</v>
       </c>
       <c r="E426" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B427" t="s">
         <v>5</v>
@@ -8309,12 +8309,12 @@
         <v>7</v>
       </c>
       <c r="E427" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B428" t="s">
         <v>5</v>
@@ -8326,12 +8326,12 @@
         <v>9</v>
       </c>
       <c r="E428" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B429" t="s">
         <v>5</v>
@@ -8343,12 +8343,12 @@
         <v>9</v>
       </c>
       <c r="E429" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B430" t="s">
         <v>5</v>
@@ -8360,12 +8360,12 @@
         <v>12</v>
       </c>
       <c r="E430" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B431" t="s">
         <v>5</v>
@@ -8377,12 +8377,12 @@
         <v>12</v>
       </c>
       <c r="E431" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B432" t="s">
         <v>5</v>
@@ -8394,12 +8394,12 @@
         <v>7</v>
       </c>
       <c r="E432" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B433" t="s">
         <v>5</v>
@@ -8411,12 +8411,12 @@
         <v>9</v>
       </c>
       <c r="E433" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B434" t="s">
         <v>5</v>
@@ -8428,12 +8428,12 @@
         <v>9</v>
       </c>
       <c r="E434" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B435" t="s">
         <v>5</v>
@@ -8445,12 +8445,12 @@
         <v>12</v>
       </c>
       <c r="E435" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B436" t="s">
         <v>5</v>
@@ -8462,12 +8462,12 @@
         <v>12</v>
       </c>
       <c r="E436" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B437" t="s">
         <v>5</v>
@@ -8479,12 +8479,12 @@
         <v>7</v>
       </c>
       <c r="E437" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B438" t="s">
         <v>5</v>
@@ -8496,12 +8496,12 @@
         <v>9</v>
       </c>
       <c r="E438" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B439" t="s">
         <v>5</v>
@@ -8513,12 +8513,12 @@
         <v>9</v>
       </c>
       <c r="E439" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B440" t="s">
         <v>5</v>
@@ -8530,12 +8530,12 @@
         <v>12</v>
       </c>
       <c r="E440" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B441" t="s">
         <v>5</v>
@@ -8547,12 +8547,12 @@
         <v>12</v>
       </c>
       <c r="E441" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B442" t="s">
         <v>5</v>
@@ -8564,12 +8564,12 @@
         <v>7</v>
       </c>
       <c r="E442" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B443" t="s">
         <v>5</v>
@@ -8581,12 +8581,12 @@
         <v>9</v>
       </c>
       <c r="E443" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B444" t="s">
         <v>5</v>
@@ -8598,12 +8598,12 @@
         <v>9</v>
       </c>
       <c r="E444" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B445" t="s">
         <v>5</v>
@@ -8615,12 +8615,12 @@
         <v>12</v>
       </c>
       <c r="E445" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B446" t="s">
         <v>5</v>
@@ -8632,12 +8632,12 @@
         <v>12</v>
       </c>
       <c r="E446" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B447" t="s">
         <v>5</v>
@@ -8649,12 +8649,12 @@
         <v>7</v>
       </c>
       <c r="E447" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B448" t="s">
         <v>5</v>
@@ -8666,12 +8666,12 @@
         <v>9</v>
       </c>
       <c r="E448" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B449" t="s">
         <v>5</v>
@@ -8683,12 +8683,12 @@
         <v>9</v>
       </c>
       <c r="E449" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B450" t="s">
         <v>5</v>
@@ -8700,12 +8700,12 @@
         <v>12</v>
       </c>
       <c r="E450" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B451" t="s">
         <v>5</v>
@@ -8717,12 +8717,12 @@
         <v>12</v>
       </c>
       <c r="E451" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B452" t="s">
         <v>5</v>
@@ -8734,12 +8734,12 @@
         <v>7</v>
       </c>
       <c r="E452" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B453" t="s">
         <v>5</v>
@@ -8751,12 +8751,12 @@
         <v>9</v>
       </c>
       <c r="E453" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B454" t="s">
         <v>5</v>
@@ -8768,12 +8768,12 @@
         <v>9</v>
       </c>
       <c r="E454" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B455" t="s">
         <v>5</v>
@@ -8785,12 +8785,12 @@
         <v>12</v>
       </c>
       <c r="E455" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B456" t="s">
         <v>5</v>
@@ -8802,12 +8802,12 @@
         <v>12</v>
       </c>
       <c r="E456" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B457" t="s">
         <v>5</v>
@@ -8819,12 +8819,12 @@
         <v>7</v>
       </c>
       <c r="E457" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B458" t="s">
         <v>5</v>
@@ -8836,12 +8836,12 @@
         <v>9</v>
       </c>
       <c r="E458" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B459" t="s">
         <v>5</v>
@@ -8853,12 +8853,12 @@
         <v>9</v>
       </c>
       <c r="E459" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B460" t="s">
         <v>5</v>
@@ -8870,12 +8870,12 @@
         <v>12</v>
       </c>
       <c r="E460" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B461" t="s">
         <v>5</v>
@@ -8887,12 +8887,12 @@
         <v>12</v>
       </c>
       <c r="E461" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B462" t="s">
         <v>5</v>
@@ -8904,12 +8904,12 @@
         <v>7</v>
       </c>
       <c r="E462" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B463" t="s">
         <v>5</v>
@@ -8921,12 +8921,12 @@
         <v>9</v>
       </c>
       <c r="E463" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B464" t="s">
         <v>5</v>
@@ -8938,12 +8938,12 @@
         <v>9</v>
       </c>
       <c r="E464" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B465" t="s">
         <v>5</v>
@@ -8955,12 +8955,12 @@
         <v>12</v>
       </c>
       <c r="E465" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B466" t="s">
         <v>5</v>
@@ -8972,12 +8972,12 @@
         <v>12</v>
       </c>
       <c r="E466" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B467" t="s">
         <v>5</v>
@@ -8989,12 +8989,12 @@
         <v>7</v>
       </c>
       <c r="E467" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B468" t="s">
         <v>5</v>
@@ -9006,12 +9006,12 @@
         <v>9</v>
       </c>
       <c r="E468" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B469" t="s">
         <v>5</v>
@@ -9023,12 +9023,12 @@
         <v>9</v>
       </c>
       <c r="E469" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B470" t="s">
         <v>5</v>
@@ -9040,12 +9040,12 @@
         <v>12</v>
       </c>
       <c r="E470" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B471" t="s">
         <v>5</v>
@@ -9057,12 +9057,12 @@
         <v>12</v>
       </c>
       <c r="E471" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B472" t="s">
         <v>5</v>
@@ -9074,12 +9074,12 @@
         <v>7</v>
       </c>
       <c r="E472" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B473" t="s">
         <v>5</v>
@@ -9091,12 +9091,12 @@
         <v>9</v>
       </c>
       <c r="E473" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B474" t="s">
         <v>5</v>
@@ -9108,12 +9108,12 @@
         <v>9</v>
       </c>
       <c r="E474" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B475" t="s">
         <v>5</v>
@@ -9125,12 +9125,12 @@
         <v>12</v>
       </c>
       <c r="E475" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B476" t="s">
         <v>5</v>
@@ -9142,12 +9142,12 @@
         <v>12</v>
       </c>
       <c r="E476" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B477" t="s">
         <v>5</v>
@@ -9159,12 +9159,12 @@
         <v>7</v>
       </c>
       <c r="E477" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B478" t="s">
         <v>5</v>
@@ -9176,12 +9176,12 @@
         <v>9</v>
       </c>
       <c r="E478" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B479" t="s">
         <v>5</v>
@@ -9193,12 +9193,12 @@
         <v>9</v>
       </c>
       <c r="E479" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B480" t="s">
         <v>5</v>
@@ -9210,12 +9210,12 @@
         <v>12</v>
       </c>
       <c r="E480" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B481" t="s">
         <v>5</v>
@@ -9227,12 +9227,12 @@
         <v>12</v>
       </c>
       <c r="E481" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B482" t="s">
         <v>5</v>
@@ -9244,12 +9244,12 @@
         <v>7</v>
       </c>
       <c r="E482" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B483" t="s">
         <v>5</v>
@@ -9261,12 +9261,12 @@
         <v>9</v>
       </c>
       <c r="E483" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B484" t="s">
         <v>5</v>
@@ -9278,12 +9278,12 @@
         <v>9</v>
       </c>
       <c r="E484" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B485" t="s">
         <v>5</v>
@@ -9295,12 +9295,12 @@
         <v>12</v>
       </c>
       <c r="E485" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B486" t="s">
         <v>5</v>
@@ -9312,12 +9312,12 @@
         <v>12</v>
       </c>
       <c r="E486" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B487" t="s">
         <v>5</v>
@@ -9329,12 +9329,12 @@
         <v>7</v>
       </c>
       <c r="E487" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B488" t="s">
         <v>5</v>
@@ -9346,12 +9346,12 @@
         <v>9</v>
       </c>
       <c r="E488" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B489" t="s">
         <v>5</v>
@@ -9363,12 +9363,12 @@
         <v>9</v>
       </c>
       <c r="E489" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B490" t="s">
         <v>5</v>
@@ -9380,12 +9380,12 @@
         <v>12</v>
       </c>
       <c r="E490" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B491" t="s">
         <v>5</v>
@@ -9397,12 +9397,12 @@
         <v>12</v>
       </c>
       <c r="E491" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B492" t="s">
         <v>5</v>
@@ -9414,12 +9414,12 @@
         <v>7</v>
       </c>
       <c r="E492" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B493" t="s">
         <v>5</v>
@@ -9431,12 +9431,12 @@
         <v>9</v>
       </c>
       <c r="E493" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B494" t="s">
         <v>5</v>
@@ -9448,12 +9448,12 @@
         <v>9</v>
       </c>
       <c r="E494" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B495" t="s">
         <v>5</v>
@@ -9465,12 +9465,12 @@
         <v>12</v>
       </c>
       <c r="E495" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B496" t="s">
         <v>5</v>
@@ -9482,12 +9482,12 @@
         <v>12</v>
       </c>
       <c r="E496" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B497" t="s">
         <v>5</v>
@@ -9499,12 +9499,12 @@
         <v>7</v>
       </c>
       <c r="E497" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B498" t="s">
         <v>5</v>
@@ -9516,12 +9516,12 @@
         <v>9</v>
       </c>
       <c r="E498" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B499" t="s">
         <v>5</v>
@@ -9533,12 +9533,12 @@
         <v>9</v>
       </c>
       <c r="E499" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B500" t="s">
         <v>5</v>
@@ -9550,29 +9550,29 @@
         <v>12</v>
       </c>
       <c r="E500" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
+        <v>170</v>
+      </c>
+      <c r="B501" t="s">
+        <v>5</v>
+      </c>
+      <c r="C501" t="s">
+        <v>14</v>
+      </c>
+      <c r="D501" t="s">
+        <v>12</v>
+      </c>
+      <c r="E501" t="s">
         <v>174</v>
-      </c>
-      <c r="B501" t="s">
-        <v>5</v>
-      </c>
-      <c r="C501" t="s">
-        <v>14</v>
-      </c>
-      <c r="D501" t="s">
-        <v>12</v>
-      </c>
-      <c r="E501" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B502" t="s">
         <v>5</v>
@@ -9584,12 +9584,12 @@
         <v>7</v>
       </c>
       <c r="E502" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B503" t="s">
         <v>5</v>
@@ -9601,12 +9601,12 @@
         <v>9</v>
       </c>
       <c r="E503" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B504" t="s">
         <v>5</v>
@@ -9618,12 +9618,12 @@
         <v>9</v>
       </c>
       <c r="E504" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B505" t="s">
         <v>5</v>
@@ -9635,12 +9635,12 @@
         <v>12</v>
       </c>
       <c r="E505" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B506" t="s">
         <v>5</v>
@@ -9652,12 +9652,12 @@
         <v>12</v>
       </c>
       <c r="E506" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B507" t="s">
         <v>5</v>
@@ -9669,12 +9669,12 @@
         <v>7</v>
       </c>
       <c r="E507" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B508" t="s">
         <v>5</v>
@@ -9686,12 +9686,12 @@
         <v>9</v>
       </c>
       <c r="E508" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B509" t="s">
         <v>5</v>
@@ -9703,12 +9703,12 @@
         <v>9</v>
       </c>
       <c r="E509" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B510" t="s">
         <v>5</v>
@@ -9720,29 +9720,29 @@
         <v>12</v>
       </c>
       <c r="E510" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
+        <v>175</v>
+      </c>
+      <c r="B511" t="s">
+        <v>5</v>
+      </c>
+      <c r="C511" t="s">
+        <v>14</v>
+      </c>
+      <c r="D511" t="s">
+        <v>12</v>
+      </c>
+      <c r="E511" t="s">
         <v>179</v>
-      </c>
-      <c r="B511" t="s">
-        <v>5</v>
-      </c>
-      <c r="C511" t="s">
-        <v>14</v>
-      </c>
-      <c r="D511" t="s">
-        <v>12</v>
-      </c>
-      <c r="E511" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B512" t="s">
         <v>5</v>
@@ -9754,12 +9754,12 @@
         <v>7</v>
       </c>
       <c r="E512" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B513" t="s">
         <v>5</v>
@@ -9771,12 +9771,12 @@
         <v>9</v>
       </c>
       <c r="E513" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B514" t="s">
         <v>5</v>
@@ -9788,12 +9788,12 @@
         <v>9</v>
       </c>
       <c r="E514" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B515" t="s">
         <v>5</v>
@@ -9805,12 +9805,12 @@
         <v>12</v>
       </c>
       <c r="E515" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B516" t="s">
         <v>5</v>
@@ -9822,12 +9822,12 @@
         <v>12</v>
       </c>
       <c r="E516" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B517" t="s">
         <v>5</v>
@@ -9839,12 +9839,12 @@
         <v>7</v>
       </c>
       <c r="E517" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B518" t="s">
         <v>5</v>
@@ -9856,12 +9856,12 @@
         <v>9</v>
       </c>
       <c r="E518" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B519" t="s">
         <v>5</v>
@@ -9873,12 +9873,12 @@
         <v>9</v>
       </c>
       <c r="E519" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B520" t="s">
         <v>5</v>
@@ -9890,12 +9890,12 @@
         <v>12</v>
       </c>
       <c r="E520" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B521" t="s">
         <v>5</v>
@@ -9907,12 +9907,12 @@
         <v>12</v>
       </c>
       <c r="E521" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B522" t="s">
         <v>5</v>
@@ -9924,12 +9924,12 @@
         <v>7</v>
       </c>
       <c r="E522" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B523" t="s">
         <v>5</v>
@@ -9941,12 +9941,12 @@
         <v>9</v>
       </c>
       <c r="E523" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B524" t="s">
         <v>5</v>
@@ -9958,12 +9958,12 @@
         <v>9</v>
       </c>
       <c r="E524" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B525" t="s">
         <v>5</v>
@@ -9975,12 +9975,12 @@
         <v>12</v>
       </c>
       <c r="E525" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B526" t="s">
         <v>5</v>
@@ -9992,12 +9992,12 @@
         <v>12</v>
       </c>
       <c r="E526" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B527" t="s">
         <v>5</v>
@@ -10009,12 +10009,12 @@
         <v>7</v>
       </c>
       <c r="E527" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B528" t="s">
         <v>5</v>
@@ -10026,12 +10026,12 @@
         <v>9</v>
       </c>
       <c r="E528" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B529" t="s">
         <v>5</v>
@@ -10043,12 +10043,12 @@
         <v>9</v>
       </c>
       <c r="E529" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B530" t="s">
         <v>5</v>
@@ -10060,12 +10060,12 @@
         <v>12</v>
       </c>
       <c r="E530" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B531" t="s">
         <v>5</v>
@@ -10077,12 +10077,12 @@
         <v>12</v>
       </c>
       <c r="E531" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="532" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B532" t="s">
         <v>5</v>
@@ -10094,12 +10094,12 @@
         <v>7</v>
       </c>
       <c r="E532" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B533" t="s">
         <v>5</v>
@@ -10111,12 +10111,12 @@
         <v>9</v>
       </c>
       <c r="E533" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B534" t="s">
         <v>5</v>
@@ -10128,12 +10128,12 @@
         <v>9</v>
       </c>
       <c r="E534" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B535" t="s">
         <v>5</v>
@@ -10145,12 +10145,12 @@
         <v>12</v>
       </c>
       <c r="E535" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B536" t="s">
         <v>5</v>
@@ -10162,12 +10162,12 @@
         <v>12</v>
       </c>
       <c r="E536" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B537" t="s">
         <v>5</v>
@@ -10179,12 +10179,12 @@
         <v>7</v>
       </c>
       <c r="E537" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B538" t="s">
         <v>5</v>
@@ -10196,12 +10196,12 @@
         <v>9</v>
       </c>
       <c r="E538" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B539" t="s">
         <v>5</v>
@@ -10213,12 +10213,12 @@
         <v>9</v>
       </c>
       <c r="E539" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B540" t="s">
         <v>5</v>
@@ -10230,12 +10230,12 @@
         <v>12</v>
       </c>
       <c r="E540" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B541" t="s">
         <v>5</v>
@@ -10247,12 +10247,12 @@
         <v>12</v>
       </c>
       <c r="E541" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B542" t="s">
         <v>5</v>
@@ -10264,12 +10264,12 @@
         <v>7</v>
       </c>
       <c r="E542" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B543" t="s">
         <v>5</v>
@@ -10281,12 +10281,12 @@
         <v>9</v>
       </c>
       <c r="E543" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B544" t="s">
         <v>5</v>
@@ -10298,12 +10298,12 @@
         <v>9</v>
       </c>
       <c r="E544" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="545" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B545" t="s">
         <v>5</v>
@@ -10315,12 +10315,12 @@
         <v>12</v>
       </c>
       <c r="E545" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="546" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B546" t="s">
         <v>5</v>
@@ -10332,12 +10332,12 @@
         <v>12</v>
       </c>
       <c r="E546" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="547" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B547" t="s">
         <v>5</v>
@@ -10349,12 +10349,12 @@
         <v>7</v>
       </c>
       <c r="E547" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="548" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B548" t="s">
         <v>5</v>
@@ -10366,12 +10366,12 @@
         <v>9</v>
       </c>
       <c r="E548" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="549" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B549" t="s">
         <v>5</v>
@@ -10383,12 +10383,12 @@
         <v>9</v>
       </c>
       <c r="E549" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="550" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B550" t="s">
         <v>5</v>
@@ -10400,12 +10400,12 @@
         <v>12</v>
       </c>
       <c r="E550" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="551" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B551" t="s">
         <v>5</v>
@@ -10417,12 +10417,12 @@
         <v>12</v>
       </c>
       <c r="E551" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="552" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B552" t="s">
         <v>5</v>
@@ -10434,12 +10434,12 @@
         <v>7</v>
       </c>
       <c r="E552" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="553" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B553" t="s">
         <v>5</v>
@@ -10451,12 +10451,12 @@
         <v>9</v>
       </c>
       <c r="E553" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="554" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B554" t="s">
         <v>5</v>
@@ -10468,12 +10468,12 @@
         <v>9</v>
       </c>
       <c r="E554" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="555" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B555" t="s">
         <v>5</v>
@@ -10485,12 +10485,12 @@
         <v>12</v>
       </c>
       <c r="E555" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="556" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B556" t="s">
         <v>5</v>
@@ -10502,12 +10502,12 @@
         <v>12</v>
       </c>
       <c r="E556" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="557" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B557" t="s">
         <v>5</v>
@@ -10519,12 +10519,12 @@
         <v>7</v>
       </c>
       <c r="E557" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="558" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B558" t="s">
         <v>5</v>
@@ -10536,12 +10536,12 @@
         <v>9</v>
       </c>
       <c r="E558" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="559" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B559" t="s">
         <v>5</v>
@@ -10553,12 +10553,12 @@
         <v>9</v>
       </c>
       <c r="E559" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="560" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B560" t="s">
         <v>5</v>
@@ -10570,29 +10570,29 @@
         <v>12</v>
       </c>
       <c r="E560" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="561" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
+        <v>191</v>
+      </c>
+      <c r="B561" t="s">
+        <v>5</v>
+      </c>
+      <c r="C561" t="s">
+        <v>14</v>
+      </c>
+      <c r="D561" t="s">
+        <v>12</v>
+      </c>
+      <c r="E561" t="s">
         <v>195</v>
-      </c>
-      <c r="B561" t="s">
-        <v>5</v>
-      </c>
-      <c r="C561" t="s">
-        <v>14</v>
-      </c>
-      <c r="D561" t="s">
-        <v>12</v>
-      </c>
-      <c r="E561" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="562" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B562" t="s">
         <v>5</v>
@@ -10604,12 +10604,12 @@
         <v>7</v>
       </c>
       <c r="E562" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="563" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B563" t="s">
         <v>5</v>
@@ -10621,12 +10621,12 @@
         <v>9</v>
       </c>
       <c r="E563" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="564" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B564" t="s">
         <v>5</v>
@@ -10638,12 +10638,12 @@
         <v>9</v>
       </c>
       <c r="E564" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="565" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B565" t="s">
         <v>5</v>
@@ -10655,12 +10655,12 @@
         <v>12</v>
       </c>
       <c r="E565" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="566" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B566" t="s">
         <v>5</v>
@@ -10672,12 +10672,12 @@
         <v>12</v>
       </c>
       <c r="E566" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="567" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B567" t="s">
         <v>5</v>
@@ -10689,12 +10689,12 @@
         <v>7</v>
       </c>
       <c r="E567" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="568" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B568" t="s">
         <v>5</v>
@@ -10706,12 +10706,12 @@
         <v>9</v>
       </c>
       <c r="E568" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="569" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B569" t="s">
         <v>5</v>
@@ -10723,12 +10723,12 @@
         <v>9</v>
       </c>
       <c r="E569" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="570" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B570" t="s">
         <v>5</v>
@@ -10740,12 +10740,12 @@
         <v>12</v>
       </c>
       <c r="E570" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="571" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B571" t="s">
         <v>5</v>
@@ -10757,12 +10757,12 @@
         <v>12</v>
       </c>
       <c r="E571" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="572" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B572" t="s">
         <v>5</v>
@@ -10774,12 +10774,12 @@
         <v>7</v>
       </c>
       <c r="E572" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="573" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B573" t="s">
         <v>5</v>
@@ -10791,12 +10791,12 @@
         <v>9</v>
       </c>
       <c r="E573" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="574" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B574" t="s">
         <v>5</v>
@@ -10808,12 +10808,12 @@
         <v>9</v>
       </c>
       <c r="E574" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="575" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B575" t="s">
         <v>5</v>
@@ -10825,12 +10825,12 @@
         <v>12</v>
       </c>
       <c r="E575" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B576" t="s">
         <v>5</v>
@@ -10842,12 +10842,12 @@
         <v>12</v>
       </c>
       <c r="E576" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="577" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B577" t="s">
         <v>5</v>
@@ -10859,12 +10859,12 @@
         <v>7</v>
       </c>
       <c r="E577" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="578" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B578" t="s">
         <v>5</v>
@@ -10876,12 +10876,12 @@
         <v>9</v>
       </c>
       <c r="E578" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="579" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B579" t="s">
         <v>5</v>
@@ -10893,29 +10893,29 @@
         <v>9</v>
       </c>
       <c r="E579" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="580" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
+        <v>199</v>
+      </c>
+      <c r="B580" t="s">
+        <v>5</v>
+      </c>
+      <c r="C580" t="s">
+        <v>14</v>
+      </c>
+      <c r="D580" t="s">
+        <v>12</v>
+      </c>
+      <c r="E580" t="s">
         <v>203</v>
-      </c>
-      <c r="B580" t="s">
-        <v>5</v>
-      </c>
-      <c r="C580" t="s">
-        <v>14</v>
-      </c>
-      <c r="D580" t="s">
-        <v>12</v>
-      </c>
-      <c r="E580" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="581" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B581" t="s">
         <v>5</v>
@@ -10927,12 +10927,12 @@
         <v>12</v>
       </c>
       <c r="E581" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="582" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B582" t="s">
         <v>5</v>
@@ -10944,12 +10944,12 @@
         <v>7</v>
       </c>
       <c r="E582" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B583" t="s">
         <v>5</v>
@@ -10961,12 +10961,12 @@
         <v>9</v>
       </c>
       <c r="E583" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B584" t="s">
         <v>5</v>
@@ -10978,12 +10978,12 @@
         <v>9</v>
       </c>
       <c r="E584" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="585" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B585" t="s">
         <v>5</v>
@@ -10995,12 +10995,12 @@
         <v>12</v>
       </c>
       <c r="E585" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B586" t="s">
         <v>5</v>
@@ -11012,12 +11012,12 @@
         <v>12</v>
       </c>
       <c r="E586" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B587" t="s">
         <v>5</v>
@@ -11029,12 +11029,12 @@
         <v>7</v>
       </c>
       <c r="E587" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="588" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B588" t="s">
         <v>5</v>
@@ -11046,29 +11046,29 @@
         <v>9</v>
       </c>
       <c r="E588" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="589" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
+        <v>205</v>
+      </c>
+      <c r="B589" t="s">
+        <v>5</v>
+      </c>
+      <c r="C589" t="s">
+        <v>14</v>
+      </c>
+      <c r="D589" t="s">
+        <v>9</v>
+      </c>
+      <c r="E589" t="s">
         <v>209</v>
-      </c>
-      <c r="B589" t="s">
-        <v>5</v>
-      </c>
-      <c r="C589" t="s">
-        <v>14</v>
-      </c>
-      <c r="D589" t="s">
-        <v>9</v>
-      </c>
-      <c r="E589" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="590" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B590" t="s">
         <v>5</v>
@@ -11080,12 +11080,12 @@
         <v>12</v>
       </c>
       <c r="E590" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="591" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B591" t="s">
         <v>5</v>
@@ -11097,7 +11097,7 @@
         <v>12</v>
       </c>
       <c r="E591" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
